--- a/student_imformation.xlsx
+++ b/student_imformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\엑셀 파일 읽기 node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A808E29-F276-4E45-B7D1-1BC1AF1C6062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42F95C0-DC1D-4E0D-9988-56ABFDA7FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2445" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{3CFBAC0A-AA90-4479-B70D-71885EFF3ECB}"/>
   </bookViews>
@@ -34,37 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Student ID</t>
+    <t>DormNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Room Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dorm Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desk Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공진혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김땡땡</t>
+    <t>StudentID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360BA9A-2EA1-4FA5-9EA5-840382722E0C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,72 +424,15 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>11001</v>
-      </c>
-      <c r="D2">
-        <v>301</v>
-      </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>21023</v>
-      </c>
-      <c r="D3">
-        <v>205</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>10522</v>
-      </c>
-      <c r="D4">
-        <v>101</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
